--- a/DocumentManage/DocumentManage/bin/Debug/Template/ThongKeNguoiKiemTraNoiNghiep.xlsx
+++ b/DocumentManage/DocumentManage/bin/Debug/Template/ThongKeNguoiKiemTraNoiNghiep.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Phường</t>
+  </si>
+  <si>
+    <t>Số bản vẽ</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -95,6 +98,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,87 +409,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="3" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
